--- a/horarios_optimizados-898-push_gap_0.80.xlsx
+++ b/horarios_optimizados-898-push_gap_0.80.xlsx
@@ -613,37 +613,45 @@
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr"/>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr"/>
-      <c r="E5" s="4" t="inlineStr"/>
-      <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="4" t="inlineStr"/>
-      <c r="H5" s="4" t="inlineStr"/>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="4" t="inlineStr"/>
+      <c r="L5" s="4" t="inlineStr"/>
+      <c r="M5" s="4" t="inlineStr"/>
       <c r="N5" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -654,7 +662,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="P5" s="4" t="inlineStr"/>
+      <c r="P5" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q5" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -704,55 +716,35 @@
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr"/>
-      <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="4" t="inlineStr"/>
-      <c r="N6" s="4" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C6" s="4" t="inlineStr"/>
+      <c r="D6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr"/>
+      <c r="F6" s="4" t="inlineStr"/>
+      <c r="G6" s="4" t="inlineStr"/>
+      <c r="H6" s="4" t="inlineStr"/>
+      <c r="I6" s="4" t="inlineStr"/>
+      <c r="J6" s="4" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O6" s="4" t="inlineStr"/>
       <c r="P6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -838,13 +830,41 @@
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr"/>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr"/>
-      <c r="E8" s="4" t="inlineStr"/>
-      <c r="F8" s="4" t="inlineStr"/>
-      <c r="G8" s="4" t="inlineStr"/>
-      <c r="H8" s="4" t="inlineStr"/>
-      <c r="I8" s="4" t="inlineStr"/>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="J8" s="4" t="inlineStr"/>
       <c r="K8" s="4" t="inlineStr"/>
       <c r="L8" s="4" t="inlineStr"/>
@@ -873,41 +893,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R8" s="4" t="inlineStr"/>
+      <c r="S8" s="4" t="inlineStr"/>
+      <c r="T8" s="4" t="inlineStr"/>
+      <c r="U8" s="4" t="inlineStr"/>
+      <c r="V8" s="4" t="inlineStr"/>
+      <c r="W8" s="4" t="inlineStr"/>
+      <c r="X8" s="4" t="inlineStr"/>
       <c r="Y8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1003,7 +995,11 @@
       <c r="G10" s="4" t="inlineStr"/>
       <c r="H10" s="4" t="inlineStr"/>
       <c r="I10" s="4" t="inlineStr"/>
-      <c r="J10" s="4" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1024,11 +1020,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O10" s="4" t="inlineStr"/>
       <c r="P10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1087,8 +1079,16 @@
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr"/>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr"/>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="E11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1099,16 +1099,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G11" s="4" t="inlineStr"/>
+      <c r="H11" s="4" t="inlineStr"/>
       <c r="I11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1119,10 +1111,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="4" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O11" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1163,16 +1171,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X11" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="W11" s="4" t="inlineStr"/>
+      <c r="X11" s="4" t="inlineStr"/>
       <c r="Y11" s="4" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1274,22 +1274,82 @@
       <c r="F15" s="4" t="inlineStr"/>
       <c r="G15" s="4" t="inlineStr"/>
       <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="4" t="inlineStr"/>
-      <c r="L15" s="4" t="inlineStr"/>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr"/>
-      <c r="O15" s="4" t="inlineStr"/>
-      <c r="P15" s="4" t="inlineStr"/>
-      <c r="Q15" s="4" t="inlineStr"/>
-      <c r="R15" s="4" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S15" s="4" t="inlineStr"/>
-      <c r="T15" s="4" t="inlineStr"/>
-      <c r="U15" s="4" t="inlineStr"/>
-      <c r="V15" s="4" t="inlineStr"/>
-      <c r="W15" s="4" t="inlineStr"/>
-      <c r="X15" s="4" t="inlineStr"/>
+      <c r="T15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1307,72 +1367,20 @@
       <c r="H16" s="4" t="inlineStr"/>
       <c r="I16" s="4" t="inlineStr"/>
       <c r="J16" s="4" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K16" s="4" t="inlineStr"/>
+      <c r="L16" s="4" t="inlineStr"/>
+      <c r="M16" s="4" t="inlineStr"/>
+      <c r="N16" s="4" t="inlineStr"/>
       <c r="O16" s="4" t="inlineStr"/>
-      <c r="P16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P16" s="4" t="inlineStr"/>
+      <c r="Q16" s="4" t="inlineStr"/>
+      <c r="R16" s="4" t="inlineStr"/>
+      <c r="S16" s="4" t="inlineStr"/>
+      <c r="T16" s="4" t="inlineStr"/>
+      <c r="U16" s="4" t="inlineStr"/>
+      <c r="V16" s="4" t="inlineStr"/>
+      <c r="W16" s="4" t="inlineStr"/>
+      <c r="X16" s="4" t="inlineStr"/>
       <c r="Y16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1382,35 +1390,55 @@
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr"/>
-      <c r="C17" s="4" t="inlineStr"/>
-      <c r="D17" s="4" t="inlineStr"/>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="4" t="inlineStr"/>
-      <c r="J17" s="4" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O17" s="4" t="inlineStr"/>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K17" s="4" t="inlineStr"/>
+      <c r="L17" s="4" t="inlineStr"/>
+      <c r="M17" s="4" t="inlineStr"/>
+      <c r="N17" s="4" t="inlineStr"/>
+      <c r="O17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1473,16 +1501,8 @@
       <c r="H18" s="4" t="inlineStr"/>
       <c r="I18" s="4" t="inlineStr"/>
       <c r="J18" s="4" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K18" s="4" t="inlineStr"/>
+      <c r="L18" s="4" t="inlineStr"/>
       <c r="M18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1508,7 +1528,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R18" s="4" t="inlineStr"/>
+      <c r="R18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="S18" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1548,35 +1572,55 @@
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr"/>
-      <c r="C19" s="4" t="inlineStr"/>
-      <c r="D19" s="4" t="inlineStr"/>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
-      <c r="G19" s="4" t="inlineStr"/>
-      <c r="H19" s="4" t="inlineStr"/>
-      <c r="I19" s="4" t="inlineStr"/>
-      <c r="J19" s="4" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O19" s="4" t="inlineStr"/>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr"/>
+      <c r="L19" s="4" t="inlineStr"/>
+      <c r="M19" s="4" t="inlineStr"/>
+      <c r="N19" s="4" t="inlineStr"/>
+      <c r="O19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1592,41 +1636,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S19" s="4" t="inlineStr"/>
+      <c r="T19" s="4" t="inlineStr"/>
+      <c r="U19" s="4" t="inlineStr"/>
+      <c r="V19" s="4" t="inlineStr"/>
+      <c r="W19" s="4" t="inlineStr"/>
+      <c r="X19" s="4" t="inlineStr"/>
+      <c r="Y19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1634,12 +1650,36 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr"/>
-      <c r="E20" s="4" t="inlineStr"/>
-      <c r="F20" s="4" t="inlineStr"/>
-      <c r="G20" s="4" t="inlineStr"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1650,27 +1690,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N20" s="4" t="inlineStr"/>
+      <c r="J20" s="4" t="inlineStr"/>
+      <c r="K20" s="4" t="inlineStr"/>
+      <c r="L20" s="4" t="inlineStr"/>
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1701,31 +1729,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U20" s="4" t="inlineStr"/>
+      <c r="V20" s="4" t="inlineStr"/>
+      <c r="W20" s="4" t="inlineStr"/>
+      <c r="X20" s="4" t="inlineStr"/>
+      <c r="Y20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -1734,16 +1742,8 @@
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr"/>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr"/>
       <c r="E21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1754,8 +1754,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr"/>
-      <c r="H21" s="4" t="inlineStr"/>
+      <c r="G21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1766,26 +1774,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K21" s="4" t="inlineStr"/>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
       <c r="O21" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1826,8 +1818,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="W21" s="4" t="inlineStr"/>
-      <c r="X21" s="4" t="inlineStr"/>
+      <c r="W21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X21" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y21" s="4" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1923,100 +1923,28 @@
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr"/>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="4" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr"/>
+      <c r="I25" s="4" t="inlineStr"/>
       <c r="J25" s="4" t="inlineStr"/>
       <c r="K25" s="4" t="inlineStr"/>
       <c r="L25" s="4" t="inlineStr"/>
       <c r="M25" s="4" t="inlineStr"/>
-      <c r="N25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr"/>
+      <c r="P25" s="4" t="inlineStr"/>
+      <c r="Q25" s="4" t="inlineStr"/>
+      <c r="R25" s="4" t="inlineStr"/>
+      <c r="S25" s="4" t="inlineStr"/>
+      <c r="T25" s="4" t="inlineStr"/>
+      <c r="U25" s="4" t="inlineStr"/>
+      <c r="V25" s="4" t="inlineStr"/>
+      <c r="W25" s="4" t="inlineStr"/>
+      <c r="X25" s="4" t="inlineStr"/>
       <c r="Y25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2026,28 +1954,100 @@
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr"/>
-      <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="4" t="inlineStr"/>
-      <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="4" t="inlineStr"/>
-      <c r="G26" s="4" t="inlineStr"/>
-      <c r="H26" s="4" t="inlineStr"/>
-      <c r="I26" s="4" t="inlineStr"/>
-      <c r="J26" s="4" t="inlineStr"/>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K26" s="4" t="inlineStr"/>
       <c r="L26" s="4" t="inlineStr"/>
       <c r="M26" s="4" t="inlineStr"/>
       <c r="N26" s="4" t="inlineStr"/>
-      <c r="O26" s="4" t="inlineStr"/>
-      <c r="P26" s="4" t="inlineStr"/>
-      <c r="Q26" s="4" t="inlineStr"/>
-      <c r="R26" s="4" t="inlineStr"/>
-      <c r="S26" s="4" t="inlineStr"/>
-      <c r="T26" s="4" t="inlineStr"/>
-      <c r="U26" s="4" t="inlineStr"/>
-      <c r="V26" s="4" t="inlineStr"/>
-      <c r="W26" s="4" t="inlineStr"/>
-      <c r="X26" s="4" t="inlineStr"/>
+      <c r="O26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2057,60 +2057,40 @@
         </is>
       </c>
       <c r="B27" s="4" t="inlineStr"/>
-      <c r="C27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K27" s="4" t="inlineStr"/>
-      <c r="L27" s="4" t="inlineStr"/>
-      <c r="M27" s="4" t="inlineStr"/>
-      <c r="N27" s="4" t="inlineStr"/>
+      <c r="C27" s="4" t="inlineStr"/>
+      <c r="D27" s="4" t="inlineStr"/>
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr"/>
+      <c r="G27" s="4" t="inlineStr"/>
+      <c r="H27" s="4" t="inlineStr"/>
+      <c r="I27" s="4" t="inlineStr"/>
+      <c r="J27" s="4" t="inlineStr"/>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N27" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O27" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P27" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="P27" s="4" t="inlineStr"/>
       <c r="Q27" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2160,50 +2140,38 @@
         </is>
       </c>
       <c r="B28" s="4" t="inlineStr"/>
-      <c r="C28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C28" s="4" t="inlineStr"/>
+      <c r="D28" s="4" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="inlineStr"/>
+      <c r="G28" s="4" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
+      <c r="I28" s="4" t="inlineStr"/>
       <c r="J28" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K28" s="4" t="inlineStr"/>
-      <c r="L28" s="4" t="inlineStr"/>
-      <c r="M28" s="4" t="inlineStr"/>
-      <c r="N28" s="4" t="inlineStr"/>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2214,22 +2182,42 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q28" s="4" t="inlineStr"/>
       <c r="R28" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="S28" s="4" t="inlineStr"/>
-      <c r="T28" s="4" t="inlineStr"/>
-      <c r="U28" s="4" t="inlineStr"/>
-      <c r="V28" s="4" t="inlineStr"/>
-      <c r="W28" s="4" t="inlineStr"/>
-      <c r="X28" s="4" t="inlineStr"/>
+      <c r="S28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2239,48 +2227,24 @@
         </is>
       </c>
       <c r="B29" s="4" t="inlineStr"/>
-      <c r="C29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K29" s="4" t="inlineStr"/>
-      <c r="L29" s="4" t="inlineStr"/>
+      <c r="C29" s="4" t="inlineStr"/>
+      <c r="D29" s="4" t="inlineStr"/>
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="inlineStr"/>
+      <c r="G29" s="4" t="inlineStr"/>
+      <c r="H29" s="4" t="inlineStr"/>
+      <c r="I29" s="4" t="inlineStr"/>
+      <c r="J29" s="4" t="inlineStr"/>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2302,14 +2266,46 @@
         </is>
       </c>
       <c r="Q29" s="4" t="inlineStr"/>
-      <c r="R29" s="4" t="inlineStr"/>
-      <c r="S29" s="4" t="inlineStr"/>
-      <c r="T29" s="4" t="inlineStr"/>
-      <c r="U29" s="4" t="inlineStr"/>
-      <c r="V29" s="4" t="inlineStr"/>
-      <c r="W29" s="4" t="inlineStr"/>
-      <c r="X29" s="4" t="inlineStr"/>
-      <c r="Y29" s="4" t="inlineStr"/>
+      <c r="R29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -2317,36 +2313,12 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B30" s="4" t="inlineStr"/>
+      <c r="C30" s="4" t="inlineStr"/>
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr"/>
+      <c r="F30" s="4" t="inlineStr"/>
+      <c r="G30" s="4" t="inlineStr"/>
       <c r="H30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2362,10 +2334,22 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K30" s="4" t="inlineStr"/>
-      <c r="L30" s="4" t="inlineStr"/>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M30" s="4" t="inlineStr"/>
-      <c r="N30" s="4" t="inlineStr"/>
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="O30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2401,10 +2385,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V30" s="4" t="inlineStr"/>
-      <c r="W30" s="4" t="inlineStr"/>
-      <c r="X30" s="4" t="inlineStr"/>
-      <c r="Y30" s="4" t="inlineStr"/>
+      <c r="V30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2586,17 +2586,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -2605,10 +2605,10 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2629,17 +2629,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -2648,10 +2648,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -2703,20 +2703,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>14:30</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>6</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2769,11 +2779,19 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>21:00</t>
@@ -2782,7 +2800,9 @@
       <c r="H7" t="n">
         <v>7.5</v>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2802,29 +2822,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2845,17 +2865,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>18:00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -2876,29 +2908,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2919,29 +2939,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2962,30 +2982,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>20:30</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3005,29 +3015,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>15:30</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>16:00</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -3048,29 +3058,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>15:00</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -3091,29 +3101,29 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -3134,29 +3144,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3177,17 +3175,29 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+          <t>09:30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -3208,17 +3218,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -3227,10 +3237,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19">
@@ -3251,29 +3261,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="20">
@@ -3294,29 +3304,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -3337,29 +3347,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
